--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150489D6-11B3-41CF-992D-98E562DA56A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B9E87-C41E-44D7-B0F4-EF78393253BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,12 +467,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -502,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,6 +518,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +827,7 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -848,160 +858,160 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
@@ -1156,52 +1166,52 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
@@ -1220,144 +1230,144 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">

--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF335A-1077-414E-8D8F-F827A9D14A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="44265" yWindow="5085" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="mQ8rQ1de4+Gu3TxmkFXJjZVDeMIsMKimAfFr/nJ2BJE="/>
@@ -420,34 +429,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -455,7 +469,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,7 +479,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -479,44 +499,46 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -706,27 +728,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.86"/>
-    <col customWidth="1" min="2" max="2" width="19.71"/>
-    <col customWidth="1" min="3" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="36.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="22.86328125" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="5" width="8.73046875" customWidth="1"/>
+    <col min="6" max="6" width="36.53125" customWidth="1"/>
+    <col min="7" max="26" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -768,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -787,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -808,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -829,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -850,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -871,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -892,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -913,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -932,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -953,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -974,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -995,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1016,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1039,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1108,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1127,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1184,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1226,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -1247,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -1268,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -1287,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -1306,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -1327,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -1348,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1367,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -1405,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1443,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1462,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1481,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1500,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1519,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -1538,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1557,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -1576,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
@@ -1614,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
@@ -1633,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -1652,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
@@ -1671,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
@@ -1690,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
@@ -1709,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
@@ -1728,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
@@ -1747,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
@@ -1766,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -1804,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>39</v>
       </c>
@@ -1823,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>39</v>
       </c>
@@ -1842,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
@@ -1861,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>39</v>
       </c>
@@ -1880,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
@@ -1901,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>77</v>
       </c>
@@ -1922,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
@@ -1943,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>77</v>
       </c>
@@ -1964,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>83</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>83</v>
       </c>
@@ -2006,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>83</v>
       </c>
@@ -2027,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>83</v>
       </c>
@@ -2048,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>83</v>
       </c>
@@ -2069,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>83</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
@@ -2111,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
@@ -2132,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>83</v>
       </c>
@@ -2153,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>93</v>
       </c>
@@ -2174,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>93</v>
       </c>
@@ -2195,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>93</v>
       </c>
@@ -2216,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>93</v>
       </c>
@@ -2237,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>93</v>
       </c>
@@ -2258,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>93</v>
       </c>
@@ -2279,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>93</v>
       </c>
@@ -2300,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>93</v>
       </c>
@@ -2321,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>93</v>
       </c>
@@ -2342,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>93</v>
       </c>
@@ -2363,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>93</v>
       </c>
@@ -2384,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>93</v>
       </c>
@@ -2405,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>93</v>
       </c>
@@ -2426,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
@@ -2447,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>111</v>
       </c>
@@ -2468,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>111</v>
       </c>
@@ -2489,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>111</v>
       </c>
@@ -2510,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>111</v>
       </c>
@@ -2531,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>111</v>
       </c>
@@ -2552,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>111</v>
       </c>
@@ -2573,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>111</v>
       </c>
@@ -2594,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>111</v>
       </c>
@@ -2615,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>111</v>
       </c>
@@ -2636,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>111</v>
       </c>
@@ -2657,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>111</v>
       </c>
@@ -2678,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>111</v>
       </c>
@@ -2699,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>111</v>
       </c>
@@ -2720,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>111</v>
       </c>
@@ -2741,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>111</v>
       </c>
@@ -2762,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>111</v>
       </c>
@@ -2783,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>111</v>
       </c>
@@ -2804,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>111</v>
       </c>
@@ -2825,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>111</v>
       </c>
@@ -2846,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>111</v>
       </c>
@@ -2867,901 +2891,901 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1000">
     <cfRule type="colorScale" priority="1">
@@ -3774,8 +3798,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1000">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3787,9 +3809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFF335A-1077-414E-8D8F-F827A9D14A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5D0AC4-4B4C-4C60-A2FE-63476CFD115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44265" yWindow="5085" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="mQ8rQ1de4+Gu3TxmkFXJjZVDeMIsMKimAfFr/nJ2BJE="/>
     </ext>
@@ -24,8 +35,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E13DE188-AD34-4B44-BCD4-5388310AA511}</author>
+    <author>tc={6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}</author>
+    <author>tc={E1F80EC1-29ED-483D-B8E3-F6B366775769}</author>
+    <author>tc={FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}</author>
+    <author>tc={82852501-5DF6-414C-BB2B-595CD46B4355}</author>
+    <author>tc={1206FBFC-F71C-490B-BF76-B191A0D47CB3}</author>
+    <author>tc={F0542428-BE7F-4F36-B352-D9BD3B30C45A}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Moderate to severe
+Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</t>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These are means</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="2" shapeId="0" xr:uid="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Moderate to severe
+Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </t>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="3" shapeId="0" xr:uid="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    HS patients undergoing surgical excision for Hurley stage 3
+therapy were consented to provide skin tissue for scRNAseq
+analysis (Supplementary Table 1). Surgical excisions from
+3 patients with HS (axillary lesions) and 1 healthy control
+were collected and approved under the Duke University Health
+System Institutional Review Board (IRB) protocol Pro00102244
+and Pro00079799 as well as exempt due to the nature of
+otherwise discarded tissue.</t>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="4" shapeId="0" xr:uid="{82852501-5DF6-414C-BB2B-595CD46B4355}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </t>
+      </text>
+    </comment>
+    <comment ref="A59" authorId="5" shapeId="0" xr:uid="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </t>
+      </text>
+    </comment>
+    <comment ref="A63" authorId="6" shapeId="0" xr:uid="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Skin processing. We obtained 6 mm punch biopsies from 5 patients with a diagnosis of HS from an actively inflamed lesion. Healthy control skin was obtained from surgical discards and was dermatomed at 500 μm prior to processing
+Same as GSE249622 and 249793 but with different cell filtering. Shares supplement with GSE 249622</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="252">
   <si>
     <t>GSE</t>
   </si>
@@ -424,13 +517,370 @@
   </si>
   <si>
     <t>GSM7964429</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>HS1</t>
+  </si>
+  <si>
+    <t>HS2</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>181009_HS_lesional_epi</t>
+  </si>
+  <si>
+    <t>181009_HS_lesional_dermis</t>
+  </si>
+  <si>
+    <t>HSEpi190103</t>
+  </si>
+  <si>
+    <t>HSDerm190103</t>
+  </si>
+  <si>
+    <t>HSEpi190115</t>
+  </si>
+  <si>
+    <t>HSDerm190115</t>
+  </si>
+  <si>
+    <t>Hurley Stage</t>
+  </si>
+  <si>
+    <t>HS_07_2018-06-29</t>
+  </si>
+  <si>
+    <t>HS_1</t>
+  </si>
+  <si>
+    <t>HS_2</t>
+  </si>
+  <si>
+    <t>HS_3</t>
+  </si>
+  <si>
+    <t>HC_1</t>
+  </si>
+  <si>
+    <t>Washout Period</t>
+  </si>
+  <si>
+    <t>Healthy 1_Myeloid</t>
+  </si>
+  <si>
+    <t>Healthy 2_Myeloid</t>
+  </si>
+  <si>
+    <t>HS 1_Myeloid</t>
+  </si>
+  <si>
+    <t>HS 2_Myeloid</t>
+  </si>
+  <si>
+    <t>Healthy_1_KC</t>
+  </si>
+  <si>
+    <t>Healthy_2_KC</t>
+  </si>
+  <si>
+    <t>HS_1_KC</t>
+  </si>
+  <si>
+    <t>HS_2_KC</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>African-American</t>
+  </si>
+  <si>
+    <t>HIS_DIS_01M_LS_Der [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>HIS_DIS_01M_LS_Epi [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>HIS_DIS_02M_LS_Der [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>HIS_DIS_02M_LS_Epi [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>HIS_DIS_A_LS_Total [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>HIS_DIS_B_LS_Total [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>HIS_DIS_D_LS_Der [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>HIS_DIS_D_LS_Epi [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis01_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis02_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis03_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis04_postTx_week12_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis04_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis05_postTx_week12_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis05_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis06_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis07_postTx_week12_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis07_postTx_week48_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis07_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis07_preTx_LS_02 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis07_preTx_NL_02 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis08_postTx_week12_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis08_postTx_week24_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis08_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis09_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Psoriasis10_preTx_LS [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control01 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control02 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control03 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control04 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control05 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control06 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control07 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control08 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control09 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>Control10 [scRNA-Seq]</t>
+  </si>
+  <si>
+    <t>scRNA_multiplexedsample1</t>
+  </si>
+  <si>
+    <t>scRNA_multiplexedsample2</t>
+  </si>
+  <si>
+    <t>scRNA_multiplexedsample3</t>
+  </si>
+  <si>
+    <t>scRNA_Normal3</t>
+  </si>
+  <si>
+    <t>HS10x2_CD45Neg</t>
+  </si>
+  <si>
+    <t>HS10x4_CD45Neg</t>
+  </si>
+  <si>
+    <t>HS10x6_CD45Neg</t>
+  </si>
+  <si>
+    <t>NST10_CD45Neg</t>
+  </si>
+  <si>
+    <t>NST11_CD45Neg</t>
+  </si>
+  <si>
+    <t>NST22_CD45Neg</t>
+  </si>
+  <si>
+    <t>NST29_CD45Neg</t>
+  </si>
+  <si>
+    <t>NST8_CD45Neg</t>
+  </si>
+  <si>
+    <t>NST9_CD45Neg</t>
+  </si>
+  <si>
+    <t>No Systemics, nopical neosporin</t>
+  </si>
+  <si>
+    <t>Clindamycin topical, BP wash</t>
+  </si>
+  <si>
+    <t>No current derm medications</t>
+  </si>
+  <si>
+    <t>HS419_Treg_CD4Teff</t>
+  </si>
+  <si>
+    <t>HS10x2_TregCD4Teff</t>
+  </si>
+  <si>
+    <t>HS10x4_Treg</t>
+  </si>
+  <si>
+    <t>HS10x4_CD4Teff</t>
+  </si>
+  <si>
+    <t>HS10x5_CD4Teff</t>
+  </si>
+  <si>
+    <t>HS10x5_Treg</t>
+  </si>
+  <si>
+    <t>HS10x6_Treg</t>
+  </si>
+  <si>
+    <t>HS10x6_CD4Teff</t>
+  </si>
+  <si>
+    <t>NST5_Treg_CD4Teff</t>
+  </si>
+  <si>
+    <t>NST7_Treg_CD4Teff</t>
+  </si>
+  <si>
+    <t>NST8_CD4Teff</t>
+  </si>
+  <si>
+    <t>NST8_Treg</t>
+  </si>
+  <si>
+    <t>NST9_Treg_CD4Teff</t>
+  </si>
+  <si>
+    <t>NST10_Treg_CD4Teff</t>
+  </si>
+  <si>
+    <t>No current medication</t>
+  </si>
+  <si>
+    <t>HS10x5_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS10x6_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS10x4_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS10x2_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS419_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS10x5B_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS10x6B_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS10x4B_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS10x2B_CD3Neg</t>
+  </si>
+  <si>
+    <t>HS419B_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST7_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST5_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST8_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST9_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST10_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST7B_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST5B_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST8B_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST9B_CD3Neg</t>
+  </si>
+  <si>
+    <t>NST10B_CD3Neg</t>
+  </si>
+  <si>
+    <t>Systemic antibiotics (doxycycline)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,33 +888,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,8 +935,26 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -488,40 +964,193 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,6 +1164,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mi, Randy" id="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" userId="S::rmi1@HFHS.ORG::625fad48-96b8-48af-a22d-f48b1df8cdd5" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,2171 +1368,3546 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-08-07T15:35:19.37" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
+    <text>Moderate to severe
+Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</text>
+  </threadedComment>
+  <threadedComment ref="L2" dT="2024-08-07T15:29:04.81" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
+    <text>These are means</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2024-08-07T15:34:01.77" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
+    <text xml:space="preserve">Moderate to severe
+Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </text>
+  </threadedComment>
+  <threadedComment ref="A19" dT="2024-08-07T15:53:42.10" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
+    <text>HS patients undergoing surgical excision for Hurley stage 3
+therapy were consented to provide skin tissue for scRNAseq
+analysis (Supplementary Table 1). Surgical excisions from
+3 patients with HS (axillary lesions) and 1 healthy control
+were collected and approved under the Duke University Health
+System Institutional Review Board (IRB) protocol Pro00102244
+and Pro00079799 as well as exempt due to the nature of
+otherwise discarded tissue.</text>
+  </threadedComment>
+  <threadedComment ref="A23" dT="2024-08-07T15:59:19.46" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{82852501-5DF6-414C-BB2B-595CD46B4355}">
+    <text xml:space="preserve">Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3902821873</xltc2:checksum>
+        <xltc2:hyperlink startIndex="305" length="21" url="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC11057969/#SD4"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="A59" dT="2024-08-07T16:14:59.04" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
+    <text xml:space="preserve">The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </text>
+  </threadedComment>
+  <threadedComment ref="A63" dT="2024-08-07T16:31:35.66" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
+    <text>Skin processing. We obtained 6 mm punch biopsies from 5 patients with a diagnosis of HS from an actively inflamed lesion. Healthy control skin was obtained from surgical discards and was dermatomed at 500 μm prior to processing
+Same as GSE249622 and 249793 but with different cell filtering. Shares supplement with GSE 249622</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.86328125" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="5" width="8.73046875" customWidth="1"/>
-    <col min="6" max="6" width="36.53125" customWidth="1"/>
-    <col min="7" max="26" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="22.86328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.3984375" style="2" customWidth="1"/>
+    <col min="10" max="12" width="8.73046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="1" customWidth="1"/>
+    <col min="15" max="26" width="8.73046875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4" t="b">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="16">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M2" s="17">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4" t="b">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="H3" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="16">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M3" s="17">
+        <f t="shared" ref="M3:M10" si="0">14/5</f>
+        <v>2.8</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="b">
+      <c r="F4" s="15"/>
+      <c r="G4" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="H4" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M4" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4" t="b">
+      <c r="F5" s="15"/>
+      <c r="G5" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="H5" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="b">
+      <c r="F6" s="15"/>
+      <c r="G6" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="H6" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4" t="b">
+      <c r="F7" s="15"/>
+      <c r="G7" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+      <c r="H7" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4" t="b">
+      <c r="F8" s="15"/>
+      <c r="G8" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="H8" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="16">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4" t="b">
+      <c r="F9" s="15"/>
+      <c r="G9" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="H9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M9" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4" t="b">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="17">
+        <v>42.22</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="G17" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+      <c r="G18" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4" t="b">
+      <c r="E19" s="15"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="H19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="12">
+        <v>35</v>
+      </c>
+      <c r="M19" s="19">
+        <v>3</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4" t="b">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+      <c r="H20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="12">
+        <v>27</v>
+      </c>
+      <c r="M20" s="19">
+        <v>3</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4" t="b">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="H21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" s="12">
+        <v>66</v>
+      </c>
+      <c r="M21" s="19">
+        <v>3</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="12">
+        <v>48</v>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4" t="b">
+      <c r="F23" s="15"/>
+      <c r="G23" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="H23" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4" t="b">
+      <c r="F24" s="15"/>
+      <c r="G24" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+      <c r="H24" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4" t="b">
+      <c r="F25" s="15"/>
+      <c r="G25" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+      <c r="H25" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4" t="b">
+      <c r="F26" s="15"/>
+      <c r="G26" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+      <c r="H26" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4" t="b">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="H27" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4" t="b">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+      <c r="H28" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4" t="b">
+      <c r="F29" s="15"/>
+      <c r="G29" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="H29" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4" t="b">
+      <c r="F30" s="15"/>
+      <c r="G30" s="8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
+      <c r="H30" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" s="9">
+        <v>52.334246575342469</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="9">
+        <v>62.824657534246576</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="9">
+        <v>58.43013698630137</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" s="9">
+        <v>41.156164383561645</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L35" s="9">
+        <v>40.638356164383559</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" s="9">
+        <v>46.282191780821918</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" s="9">
+        <v>46.052054794520551</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L38" s="9">
+        <v>39.252054794520546</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L39" s="9">
+        <v>39.849315068493148</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L40" s="9">
+        <v>40.517808219178079</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L41" s="9">
+        <v>39.336986301369862</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" s="9">
+        <v>39.556164383561644</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L43" s="9">
+        <v>39.556164383561644</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44" s="9">
+        <v>47.843835616438355</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I45" s="16"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" s="9">
+        <v>48.112328767123287</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L46" s="9">
+        <v>47.613698630136987</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L47" s="9">
+        <v>44.739726027397261</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L48" s="9">
+        <v>37.794520547945204</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L49" s="9">
+        <v>37.471232876712328</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L50" s="9">
+        <v>36.589041095890408</v>
+      </c>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L51" s="9">
+        <v>65.569863013698637</v>
+      </c>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L52" s="9">
+        <v>40.227397260273975</v>
+      </c>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L53" s="9">
+        <v>39.838356164383562</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L54" s="9">
+        <v>41.098630136986301</v>
+      </c>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L55" s="9">
+        <v>51.876712328767127</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L56" s="9">
+        <v>51.876712328767127</v>
+      </c>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L57" s="9">
+        <v>73.558904109589037</v>
+      </c>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L58" s="9">
+        <v>73.558904109589037</v>
+      </c>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I59" s="16"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="16"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I62" s="16"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="2" t="s">
+      <c r="G63" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L63" s="22">
+        <v>51</v>
+      </c>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C64" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
+      <c r="G64" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" s="22">
+        <v>27</v>
+      </c>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
+      <c r="G65" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L65" s="8">
+        <v>32</v>
+      </c>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3" t="s">
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="2" t="s">
+      <c r="G66" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I66" s="16"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
+      <c r="G67" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I67" s="16"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
+      <c r="G68" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I68" s="16"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
+      <c r="G69" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" s="16"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
+      <c r="G70" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="I70" s="16"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3" t="s">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
+      <c r="G71" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I71" s="16"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="C72" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="7" t="s">
+      <c r="E72" s="28"/>
+      <c r="F72" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="G72" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="2" t="s">
+      <c r="G72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="7" t="s">
+      <c r="E73" s="28"/>
+      <c r="F73" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="G73" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
+      <c r="G73" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L73" s="22">
+        <v>51</v>
+      </c>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="7" t="s">
+      <c r="E74" s="28"/>
+      <c r="F74" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G74" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
+      <c r="G74" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L74" s="22">
+        <v>27</v>
+      </c>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="7" t="s">
+      <c r="E75" s="28"/>
+      <c r="F75" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G75" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="2" t="s">
+      <c r="G75" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L75" s="22">
+        <v>27</v>
+      </c>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="C76" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="7" t="s">
+      <c r="E76" s="28"/>
+      <c r="F76" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G76" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
+      <c r="G76" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L76" s="8">
+        <v>27</v>
+      </c>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="C77" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="7" t="s">
+      <c r="E77" s="28"/>
+      <c r="F77" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="2" t="s">
+      <c r="G77" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="J77" s="8"/>
+      <c r="K77" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L77" s="8">
+        <v>27</v>
+      </c>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="7" t="s">
+      <c r="E78" s="28"/>
+      <c r="F78" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="2" t="s">
+      <c r="G78" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L78" s="8">
+        <v>32</v>
+      </c>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="7" t="s">
+      <c r="E79" s="28"/>
+      <c r="F79" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="2" t="s">
+      <c r="G79" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L79" s="8">
+        <v>32</v>
+      </c>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+    </row>
+    <row r="80" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="7" t="s">
+      <c r="E80" s="8"/>
+      <c r="F80" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G80" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="2" t="s">
+      <c r="G80" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I80" s="22"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="7" t="s">
+      <c r="E81" s="8"/>
+      <c r="F81" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G81" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="2" t="s">
+      <c r="G81" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="7" t="s">
+      <c r="E82" s="8"/>
+      <c r="F82" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G82" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="2" t="s">
+      <c r="G82" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="7" t="s">
+      <c r="E83" s="8"/>
+      <c r="F83" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="2" t="s">
+      <c r="G83" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="7" t="s">
+      <c r="E84" s="8"/>
+      <c r="F84" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G84" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
+      <c r="G84" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I84" s="16"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="7" t="s">
+      <c r="E85" s="8"/>
+      <c r="F85" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G85" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="2" t="s">
+      <c r="G85" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I85" s="16"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="C86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="7" t="s">
+      <c r="E86" s="8"/>
+      <c r="F86" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G86" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="2" t="s">
+      <c r="G86" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="J86" s="8"/>
+      <c r="K86" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L86" s="8">
+        <v>27</v>
+      </c>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="7" t="s">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G87" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="2" t="s">
+      <c r="G87" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L87" s="8">
+        <v>32</v>
+      </c>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="7" t="s">
+      <c r="E88" s="8"/>
+      <c r="F88" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G88" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="2" t="s">
+      <c r="G88" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L88" s="22">
+        <v>27</v>
+      </c>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="7" t="s">
+      <c r="E89" s="8"/>
+      <c r="F89" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G89" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="2" t="s">
+      <c r="G89" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L89" s="22">
+        <v>51</v>
+      </c>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="C90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="7" t="s">
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G90" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="2" t="s">
+      <c r="G90" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="J90" s="8"/>
+      <c r="K90" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L90" s="20">
+        <v>45</v>
+      </c>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="7" t="s">
+      <c r="E91" s="8"/>
+      <c r="F91" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G91" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="2" t="s">
+      <c r="G91" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="J91" s="8"/>
+      <c r="K91" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L91" s="8">
+        <v>27</v>
+      </c>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="7" t="s">
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G92" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="2" t="s">
+      <c r="G92" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="I92" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L92" s="8">
+        <v>32</v>
+      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="7" t="s">
+      <c r="E93" s="8"/>
+      <c r="F93" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G93" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="2" t="s">
+      <c r="G93" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L93" s="22">
+        <v>27</v>
+      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C94" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="7" t="s">
+      <c r="E94" s="8"/>
+      <c r="F94" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G94" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="2" t="s">
+      <c r="G94" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L94" s="22">
+        <v>51</v>
+      </c>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="7" t="s">
+      <c r="E95" s="8"/>
+      <c r="F95" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G95" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="2" t="s">
+      <c r="G95" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="J95" s="8"/>
+      <c r="K95" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L95" s="20">
+        <v>45</v>
+      </c>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="7" t="s">
+      <c r="E96" s="8"/>
+      <c r="F96" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G96" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="2" t="s">
+      <c r="G96" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="I96" s="16"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="7" t="s">
+      <c r="E97" s="8"/>
+      <c r="F97" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G97" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="2" t="s">
+      <c r="G97" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I97" s="16"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+    </row>
+    <row r="98" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="7" t="s">
+      <c r="E98" s="8"/>
+      <c r="F98" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G98" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="2" t="s">
+      <c r="G98" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="I98" s="16"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+    </row>
+    <row r="99" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="7" t="s">
+      <c r="E99" s="8"/>
+      <c r="F99" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G99" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="2" t="s">
+      <c r="G99" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="I99" s="16"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+    </row>
+    <row r="100" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="7" t="s">
+      <c r="E100" s="8"/>
+      <c r="F100" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G100" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="2" t="s">
+      <c r="G100" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="I100" s="16"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+    </row>
+    <row r="101" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="7" t="s">
+      <c r="E101" s="8"/>
+      <c r="F101" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G101" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="2" t="s">
+      <c r="G101" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="I101" s="16"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+    </row>
+    <row r="102" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="7" t="s">
+      <c r="E102" s="8"/>
+      <c r="F102" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="2" t="s">
+      <c r="G102" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="I102" s="16"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+    </row>
+    <row r="103" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="7" t="s">
+      <c r="E103" s="8"/>
+      <c r="F103" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G103" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="2" t="s">
+      <c r="G103" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I103" s="16"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+    </row>
+    <row r="104" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="7" t="s">
+      <c r="E104" s="8"/>
+      <c r="F104" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G104" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="2" t="s">
+      <c r="G104" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="I104" s="16"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+    </row>
+    <row r="105" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="7" t="s">
+      <c r="E105" s="8"/>
+      <c r="F105" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G105" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="G105" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="I105" s="16"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+    </row>
+    <row r="106" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K106" s="7"/>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K107" s="7"/>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3811,5 +5821,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5D0AC4-4B4C-4C60-A2FE-63476CFD115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF0633-255F-436E-98ED-82BD35B9D7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="253">
   <si>
     <t>GSE</t>
   </si>
@@ -874,24 +874,21 @@
   </si>
   <si>
     <t>Systemic antibiotics (doxycycline)</t>
+  </si>
+  <si>
+    <t>After QC Cell Counts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -922,7 +919,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +947,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,77 +1080,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1415,8 +1414,8 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1431,3477 +1430,3470 @@
     <col min="10" max="12" width="8.73046875" style="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" style="1" customWidth="1"/>
-    <col min="15" max="26" width="8.73046875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.53125" style="1" customWidth="1"/>
+    <col min="16" max="26" width="8.73046875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="14.3984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="5" t="s">
         <v>162</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="8" t="b">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="17">
+      <c r="K2" s="5"/>
+      <c r="L2" s="12">
         <v>42.22</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <f>14/5</f>
         <v>2.8</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="8" t="b">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="9">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="17">
+      <c r="K3" s="5"/>
+      <c r="L3" s="12">
         <v>42.22</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f t="shared" ref="M3:M10" si="0">14/5</f>
         <v>2.8</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="8" t="b">
+      <c r="F4" s="11"/>
+      <c r="G4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="17">
+      <c r="K4" s="5"/>
+      <c r="L4" s="12">
         <v>42.22</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="8" t="b">
+      <c r="F5" s="11"/>
+      <c r="G5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="9">
         <v>2</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="17">
+      <c r="K5" s="5"/>
+      <c r="L5" s="12">
         <v>42.22</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="8" t="b">
+      <c r="F6" s="11"/>
+      <c r="G6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="9">
         <v>2</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="17">
+      <c r="K6" s="5"/>
+      <c r="L6" s="12">
         <v>42.22</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="8" t="b">
+      <c r="F7" s="11"/>
+      <c r="G7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="17">
+      <c r="K7" s="5"/>
+      <c r="L7" s="12">
         <v>42.22</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="8" t="b">
+      <c r="F8" s="11"/>
+      <c r="G8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="9">
         <v>2</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="17">
+      <c r="K8" s="5"/>
+      <c r="L8" s="12">
         <v>42.22</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="8" t="b">
+      <c r="F9" s="11"/>
+      <c r="G9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="9">
         <v>2</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="17">
+      <c r="K9" s="5"/>
+      <c r="L9" s="12">
         <v>42.22</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="8" t="b">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="9">
         <v>2</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="17">
+      <c r="K10" s="5"/>
+      <c r="L10" s="12">
         <v>42.22</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="12">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="31" t="b">
+      <c r="G13" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="9">
         <v>0.5</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="31" t="b">
+      <c r="G14" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="9">
         <v>0.5</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="5"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="G16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="24" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="31" t="b">
+      <c r="G17" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="9">
         <v>0.5</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="24" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="31" t="b">
+      <c r="G18" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="9">
         <v>0.5</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="8" t="b">
+      <c r="E19" s="11"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="5">
         <v>35</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="14">
         <v>3</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
+    </row>
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="8" t="b">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="5">
         <v>27</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="14">
         <v>3</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
+    </row>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="8" t="b">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="5">
         <v>66</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="14">
         <v>3</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
+    </row>
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="5">
         <v>48</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="12" t="s">
+      <c r="M22" s="14"/>
+      <c r="N22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="14" t="s">
+    </row>
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="8" t="b">
+      <c r="F23" s="11"/>
+      <c r="G23" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="14" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="8" t="b">
+      <c r="F24" s="11"/>
+      <c r="G24" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="14" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="8" t="b">
+      <c r="F25" s="11"/>
+      <c r="G25" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="14" t="s">
+      <c r="I25" s="9"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="8" t="b">
+      <c r="F26" s="11"/>
+      <c r="G26" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="14" t="s">
+      <c r="I26" s="9"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="8" t="b">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="14" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="8" t="b">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="14" t="s">
+      <c r="I28" s="9"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="8" t="b">
+      <c r="F29" s="11"/>
+      <c r="G29" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="14" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="8" t="b">
+      <c r="F30" s="11"/>
+      <c r="G30" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="11" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="20" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="8" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="6">
         <v>52.334246575342469</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="8" t="s">
+      <c r="I32" s="9"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="6">
         <v>62.824657534246576</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="20" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="8" t="s">
+      <c r="I33" s="9"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="6">
         <v>58.43013698630137</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="20" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8" t="s">
+      <c r="I34" s="9"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="6">
         <v>41.156164383561645</v>
       </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="20" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8" t="s">
+      <c r="I35" s="9"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="6">
         <v>40.638356164383559</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="20" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8" t="s">
+      <c r="I36" s="9"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="6">
         <v>46.282191780821918</v>
       </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="20" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8" t="s">
+      <c r="I37" s="9"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="6">
         <v>46.052054794520551</v>
       </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="20" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8" t="s">
+      <c r="I38" s="9"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="6">
         <v>39.252054794520546</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="20" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8" t="s">
+      <c r="I39" s="9"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="6">
         <v>39.849315068493148</v>
       </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="20" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8" t="s">
+      <c r="I40" s="9"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="6">
         <v>40.517808219178079</v>
       </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="20" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8" t="s">
+      <c r="I41" s="9"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="6">
         <v>39.336986301369862</v>
       </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="20" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8" t="s">
+      <c r="I42" s="9"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="6">
         <v>39.556164383561644</v>
       </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="20" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8" t="s">
+      <c r="I43" s="9"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="6">
         <v>39.556164383561644</v>
       </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="20" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8" t="s">
+      <c r="I44" s="9"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="6">
         <v>47.843835616438355</v>
       </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="20" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8" t="s">
+      <c r="I45" s="9"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="6">
         <v>48.112328767123287</v>
       </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="20" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8" t="s">
+      <c r="I46" s="9"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="6">
         <v>47.613698630136987</v>
       </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="20" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8" t="s">
+      <c r="I47" s="9"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="6">
         <v>44.739726027397261</v>
       </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="20" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8" t="s">
+      <c r="I48" s="9"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="6">
         <v>37.794520547945204</v>
       </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="20" t="s">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8" t="s">
+      <c r="I49" s="9"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="6">
         <v>37.471232876712328</v>
       </c>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="20" t="s">
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8" t="s">
+      <c r="I50" s="9"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="6">
         <v>36.589041095890408</v>
       </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="20" t="s">
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8" t="s">
+      <c r="I51" s="9"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="6">
         <v>65.569863013698637</v>
       </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" s="20" t="s">
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8" t="s">
+      <c r="I52" s="9"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="6">
         <v>40.227397260273975</v>
       </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" s="20" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8" t="s">
+      <c r="I53" s="9"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="6">
         <v>39.838356164383562</v>
       </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="20" t="s">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8" t="s">
+      <c r="I54" s="9"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="6">
         <v>41.098630136986301</v>
       </c>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" s="20" t="s">
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8" t="s">
+      <c r="I55" s="9"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="6">
         <v>51.876712328767127</v>
       </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="20" t="s">
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8" t="s">
+      <c r="I56" s="9"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="6">
         <v>51.876712328767127</v>
       </c>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" s="20" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8" t="s">
+      <c r="I57" s="9"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="6">
         <v>73.558904109589037</v>
       </c>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="20" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8" t="s">
+      <c r="I58" s="9"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="6">
         <v>73.558904109589037</v>
       </c>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" s="20" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I59" s="16"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="20" t="s">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I60" s="16"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="20" t="s">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="20" t="s">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
+      <c r="E63" s="33"/>
+      <c r="F63" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" s="20" t="s">
+      <c r="G63" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="I63" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8" t="s">
+      <c r="J63" s="5"/>
+      <c r="K63" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L63" s="22">
+      <c r="L63" s="16">
         <v>51</v>
       </c>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="33"/>
+      <c r="F64" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" s="20" t="s">
+      <c r="G64" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I64" s="16" t="s">
+      <c r="I64" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8" t="s">
+      <c r="J64" s="5"/>
+      <c r="K64" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L64" s="22">
+      <c r="L64" s="16">
         <v>27</v>
       </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
     </row>
     <row r="65" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="E65" s="33"/>
+      <c r="F65" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" s="20" t="s">
+      <c r="G65" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="I65" s="16" t="s">
+      <c r="I65" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8" t="s">
+      <c r="J65" s="5"/>
+      <c r="K65" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L65" s="5">
         <v>32</v>
       </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
     </row>
     <row r="66" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="20" t="s">
+      <c r="G66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="I66" s="16"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
     </row>
     <row r="67" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" s="20" t="s">
+      <c r="G67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="16"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
     </row>
     <row r="68" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="20" t="s">
+      <c r="G68" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" s="20" t="s">
+      <c r="G69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
     </row>
     <row r="70" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="20" t="s">
+      <c r="G70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="I70" s="16"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
     </row>
     <row r="71" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8" t="s">
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" s="20" t="s">
+      <c r="G71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="I71" s="16"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
     </row>
     <row r="72" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="28" t="s">
+      <c r="C72" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28" t="s">
+      <c r="E72" s="22"/>
+      <c r="F72" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G72" s="8" t="b">
+      <c r="G72" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H72" s="20" t="s">
+      <c r="H72" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
     </row>
     <row r="73" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="28" t="s">
+      <c r="C73" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28" t="s">
+      <c r="E73" s="22"/>
+      <c r="F73" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G73" s="8" t="b">
+      <c r="G73" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H73" s="20" t="s">
+      <c r="H73" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8" t="s">
+      <c r="J73" s="5"/>
+      <c r="K73" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="16">
         <v>51</v>
       </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
     </row>
     <row r="74" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="28" t="s">
+      <c r="C74" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28" t="s">
+      <c r="E74" s="22"/>
+      <c r="F74" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G74" s="8" t="b">
+      <c r="G74" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H74" s="20" t="s">
+      <c r="H74" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I74" s="16" t="s">
+      <c r="I74" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8" t="s">
+      <c r="J74" s="5"/>
+      <c r="K74" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L74" s="22">
+      <c r="L74" s="16">
         <v>27</v>
       </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
     </row>
     <row r="75" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="28" t="s">
+      <c r="C75" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28" t="s">
+      <c r="E75" s="22"/>
+      <c r="F75" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G75" s="8" t="b">
+      <c r="G75" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H75" s="21" t="s">
+      <c r="H75" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="I75" s="16" t="s">
+      <c r="I75" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8" t="s">
+      <c r="J75" s="5"/>
+      <c r="K75" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L75" s="16">
         <v>27</v>
       </c>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
     </row>
     <row r="76" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="28" t="s">
+      <c r="C76" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28" t="s">
+      <c r="E76" s="22"/>
+      <c r="F76" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G76" s="8" t="b">
+      <c r="G76" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H76" s="21" t="s">
+      <c r="H76" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I76" s="22" t="s">
+      <c r="I76" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="23" t="s">
+      <c r="J76" s="5"/>
+      <c r="K76" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76" s="5">
         <v>27</v>
       </c>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
     </row>
     <row r="77" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="28" t="s">
+      <c r="C77" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28" t="s">
+      <c r="E77" s="22"/>
+      <c r="F77" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="8" t="b">
+      <c r="G77" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H77" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="I77" s="22" t="s">
+      <c r="I77" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="23" t="s">
+      <c r="J77" s="5"/>
+      <c r="K77" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="5">
         <v>27</v>
       </c>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
     </row>
     <row r="78" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="28" t="s">
+      <c r="C78" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28" t="s">
+      <c r="E78" s="22"/>
+      <c r="F78" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="8" t="b">
+      <c r="G78" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H78" s="21" t="s">
+      <c r="H78" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="I78" s="16" t="s">
+      <c r="I78" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8" t="s">
+      <c r="J78" s="5"/>
+      <c r="K78" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78" s="5">
         <v>32</v>
       </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
     </row>
     <row r="79" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="28" t="s">
+      <c r="C79" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28" t="s">
+      <c r="E79" s="22"/>
+      <c r="F79" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="8" t="b">
+      <c r="G79" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H79" s="21" t="s">
+      <c r="H79" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="I79" s="16" t="s">
+      <c r="I79" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8" t="s">
+      <c r="J79" s="5"/>
+      <c r="K79" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L79" s="5">
         <v>32</v>
       </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
     </row>
     <row r="80" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G80" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" s="21" t="s">
+      <c r="G80" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="I80" s="22"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
     </row>
     <row r="81" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="E81" s="5"/>
+      <c r="F81" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G81" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" s="21" t="s">
+      <c r="G81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I81" s="16"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
+      <c r="E82" s="5"/>
+      <c r="F82" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G82" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" s="21" t="s">
+      <c r="G82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="I82" s="16"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
     </row>
     <row r="83" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+      <c r="E83" s="5"/>
+      <c r="F83" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" s="21" t="s">
+      <c r="G83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I83" s="16"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
     </row>
     <row r="84" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
+      <c r="E84" s="5"/>
+      <c r="F84" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G84" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" s="21" t="s">
+      <c r="G84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="I84" s="16"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
     </row>
     <row r="85" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G85" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" s="21" t="s">
+      <c r="G85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I85" s="16"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
     </row>
     <row r="86" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="C86" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
+      <c r="E86" s="33"/>
+      <c r="F86" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G86" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" s="20" t="s">
+      <c r="G86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="I86" s="22" t="s">
+      <c r="I86" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="23" t="s">
+      <c r="J86" s="5"/>
+      <c r="K86" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L86" s="8">
+      <c r="L86" s="5">
         <v>27</v>
       </c>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
     </row>
     <row r="87" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="C87" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
+      <c r="E87" s="33"/>
+      <c r="F87" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G87" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" s="20" t="s">
+      <c r="G87" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="I87" s="16" t="s">
+      <c r="I87" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8" t="s">
+      <c r="J87" s="5"/>
+      <c r="K87" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L87" s="5">
         <v>32</v>
       </c>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
     </row>
     <row r="88" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="8" t="s">
+      <c r="C88" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8" t="s">
+      <c r="E88" s="33"/>
+      <c r="F88" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G88" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="20" t="s">
+      <c r="G88" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I88" s="16" t="s">
+      <c r="I88" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8" t="s">
+      <c r="J88" s="5"/>
+      <c r="K88" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L88" s="22">
+      <c r="L88" s="16">
         <v>27</v>
       </c>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
     </row>
     <row r="89" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="C89" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
+      <c r="E89" s="33"/>
+      <c r="F89" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G89" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" s="21" t="s">
+      <c r="G89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I89" s="16" t="s">
+      <c r="I89" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8" t="s">
+      <c r="J89" s="5"/>
+      <c r="K89" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L89" s="22">
+      <c r="L89" s="16">
         <v>51</v>
       </c>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
     </row>
     <row r="90" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="C90" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
+      <c r="E90" s="33"/>
+      <c r="F90" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G90" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" s="21" t="s">
+      <c r="G90" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="I90" s="16" t="s">
+      <c r="I90" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J90" s="8"/>
-      <c r="K90" s="22" t="s">
+      <c r="J90" s="5"/>
+      <c r="K90" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="L90" s="20">
+      <c r="L90" s="15">
         <v>45</v>
       </c>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
     </row>
     <row r="91" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="C91" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
+      <c r="E91" s="33"/>
+      <c r="F91" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G91" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" s="21" t="s">
+      <c r="G91" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I91" s="22" t="s">
+      <c r="I91" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="J91" s="8"/>
-      <c r="K91" s="23" t="s">
+      <c r="J91" s="5"/>
+      <c r="K91" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L91" s="8">
+      <c r="L91" s="5">
         <v>27</v>
       </c>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
     </row>
     <row r="92" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="C92" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8" t="s">
+      <c r="E92" s="33"/>
+      <c r="F92" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G92" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="21" t="s">
+      <c r="G92" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="I92" s="16" t="s">
+      <c r="I92" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8" t="s">
+      <c r="J92" s="5"/>
+      <c r="K92" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L92" s="8">
+      <c r="L92" s="5">
         <v>32</v>
       </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
     </row>
     <row r="93" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="C93" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8" t="s">
+      <c r="E93" s="33"/>
+      <c r="F93" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G93" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="21" t="s">
+      <c r="G93" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="I93" s="16" t="s">
+      <c r="I93" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8" t="s">
+      <c r="J93" s="5"/>
+      <c r="K93" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L93" s="22">
+      <c r="L93" s="16">
         <v>27</v>
       </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
     </row>
     <row r="94" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
+      <c r="E94" s="33"/>
+      <c r="F94" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G94" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="21" t="s">
+      <c r="G94" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="I94" s="16" t="s">
+      <c r="I94" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8" t="s">
+      <c r="J94" s="5"/>
+      <c r="K94" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L94" s="22">
+      <c r="L94" s="16">
         <v>51</v>
       </c>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
     </row>
     <row r="95" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="C95" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="E95" s="33"/>
+      <c r="F95" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G95" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" s="21" t="s">
+      <c r="G95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I95" s="16" t="s">
+      <c r="I95" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="22" t="s">
+      <c r="J95" s="5"/>
+      <c r="K95" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="L95" s="20">
+      <c r="L95" s="15">
         <v>45</v>
       </c>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
     </row>
     <row r="96" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G96" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" s="21" t="s">
+      <c r="G96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="I96" s="16"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
     </row>
     <row r="97" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="E97" s="5"/>
+      <c r="F97" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G97" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="21" t="s">
+      <c r="G97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I97" s="16"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
     </row>
     <row r="98" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
+      <c r="E98" s="5"/>
+      <c r="F98" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G98" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" s="21" t="s">
+      <c r="G98" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="I98" s="16"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
     </row>
     <row r="99" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G99" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" s="21" t="s">
+      <c r="G99" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="I99" s="16"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
     </row>
     <row r="100" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8" t="s">
+      <c r="E100" s="5"/>
+      <c r="F100" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G100" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" s="21" t="s">
+      <c r="G100" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="I100" s="16"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
+      <c r="E101" s="5"/>
+      <c r="F101" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G101" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" s="21" t="s">
+      <c r="G101" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="I101" s="16"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
     </row>
     <row r="102" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8" t="s">
+      <c r="E102" s="5"/>
+      <c r="F102" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" s="21" t="s">
+      <c r="G102" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="I102" s="16"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
     </row>
     <row r="103" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8" t="s">
+      <c r="E103" s="5"/>
+      <c r="F103" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G103" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" s="21" t="s">
+      <c r="G103" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="I103" s="16"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
     </row>
     <row r="104" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
+      <c r="E104" s="5"/>
+      <c r="F104" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G104" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" s="21" t="s">
+      <c r="G104" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="I104" s="16"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
     </row>
     <row r="105" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
+      <c r="E105" s="5"/>
+      <c r="F105" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G105" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" s="21" t="s">
+      <c r="G105" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="I105" s="16"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
     </row>
     <row r="106" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K106" s="7"/>
-      <c r="L106" s="6"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="3"/>
     </row>
     <row r="107" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K107" s="7"/>
-      <c r="L107" s="6"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="109" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7480E4A2-A0CC-472C-90DA-FE83F962D248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CBF841-D496-46E5-B40D-C11845A4F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -39,24 +39,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={82852501-5DF6-414C-BB2B-595CD46B4355}</author>
-    <author>tc={FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}</author>
-    <author>tc={F0542428-BE7F-4F36-B352-D9BD3B30C45A}</author>
     <author>tc={E13DE188-AD34-4B44-BCD4-5388310AA511}</author>
     <author>tc={6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}</author>
     <author>tc={E1F80EC1-29ED-483D-B8E3-F6B366775769}</author>
+    <author>tc={FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}</author>
+    <author>tc={82852501-5DF6-414C-BB2B-595CD46B4355}</author>
     <author>tc={1206FBFC-F71C-490B-BF76-B191A0D47CB3}</author>
+    <author>tc={F0542428-BE7F-4F36-B352-D9BD3B30C45A}</author>
   </authors>
   <commentList>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{82852501-5DF6-414C-BB2B-595CD46B4355}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Moderate to severe
+Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</t>
+      </text>
+    </comment>
+    <comment ref="O8" authorId="1" shapeId="0" xr:uid="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These are means</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="2" shapeId="0" xr:uid="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </t>
+    Moderate to severe
+Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </t>
       </text>
     </comment>
-    <comment ref="A27" authorId="1" shapeId="0" xr:uid="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
+    <comment ref="A21" authorId="3" shapeId="0" xr:uid="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,47 +89,29 @@
 otherwise discarded tissue.</t>
       </text>
     </comment>
-    <comment ref="A35" authorId="2" shapeId="0" xr:uid="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
+    <comment ref="A28" authorId="4" shapeId="0" xr:uid="{82852501-5DF6-414C-BB2B-595CD46B4355}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </t>
+      </text>
+    </comment>
+    <comment ref="A59" authorId="5" shapeId="0" xr:uid="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </t>
+      </text>
+    </comment>
+    <comment ref="A64" authorId="6" shapeId="0" xr:uid="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Skin processing. We obtained 6 mm punch biopsies from 5 patients with a diagnosis of HS from an actively inflamed lesion. Healthy control skin was obtained from surgical discards and was dermatomed at 500 μm prior to processing
 Same as GSE249622 and 249793 but with different cell filtering. Shares supplement with GSE 249622</t>
-      </text>
-    </comment>
-    <comment ref="A44" authorId="3" shapeId="0" xr:uid="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Moderate to severe
-Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</t>
-      </text>
-    </comment>
-    <comment ref="O44" authorId="4" shapeId="0" xr:uid="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    These are means</t>
-      </text>
-    </comment>
-    <comment ref="A48" authorId="5" shapeId="0" xr:uid="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Moderate to severe
-Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </t>
-      </text>
-    </comment>
-    <comment ref="A81" authorId="6" shapeId="0" xr:uid="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </t>
       </text>
     </comment>
   </commentList>
@@ -1026,7 +1026,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1085,7 +1085,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1105,11 +1104,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1333,16 +1332,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A18" dT="2024-08-07T15:59:19.46" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{82852501-5DF6-414C-BB2B-595CD46B4355}">
-    <text xml:space="preserve">Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>3902821873</xltc2:checksum>
-        <xltc2:hyperlink startIndex="305" length="21" url="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC11057969/#SD4"/>
-      </x:ext>
-    </extLst>
+  <threadedComment ref="A8" dT="2024-08-07T15:35:19.37" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
+    <text>Moderate to severe
+Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</text>
   </threadedComment>
-  <threadedComment ref="A27" dT="2024-08-07T15:53:42.10" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
+  <threadedComment ref="O8" dT="2024-08-07T15:29:04.81" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
+    <text>These are means</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2024-08-07T15:34:01.77" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
+    <text xml:space="preserve">Moderate to severe
+Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </text>
+  </threadedComment>
+  <threadedComment ref="A21" dT="2024-08-07T15:53:42.10" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{FE2F1EA7-BE74-46C5-9430-6B5F46DF7146}">
     <text>HS patients undergoing surgical excision for Hurley stage 3
 therapy were consented to provide skin tissue for scRNAseq
 analysis (Supplementary Table 1). Surgical excisions from
@@ -1352,23 +1353,21 @@
 and Pro00079799 as well as exempt due to the nature of
 otherwise discarded tissue.</text>
   </threadedComment>
-  <threadedComment ref="A35" dT="2024-08-07T16:31:35.66" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
+  <threadedComment ref="A28" dT="2024-08-07T15:59:19.46" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{82852501-5DF6-414C-BB2B-595CD46B4355}">
+    <text xml:space="preserve">Discarded and de-identified HS skin specimens were collected during HS dermal tunnel de-roofing surgical procedures. To label epidermal KCs and dermal tunnel KCs separately, the epidermis and dermis of collected skin samples were separated after incubation in 0.2% Dispase II (Sigma-Aldrich) for 3 hours (Supplemental Figure 1). Then, the epidermis and dermis were separately incubated in RPMI-1640 medium with L-glutamine (Cytiva) supplemented with 10% human albumin serum (Sigma-Aldrich) in a humidified incubator at 37°C and 5% CO2. Cells that had emigrated out of the epidermis and dermis were separately harvested after 48 hours. </text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3902821873</xltc2:checksum>
+        <xltc2:hyperlink startIndex="305" length="21" url="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC11057969/#SD4"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="A59" dT="2024-08-07T16:14:59.04" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
+    <text xml:space="preserve">The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </text>
+  </threadedComment>
+  <threadedComment ref="A64" dT="2024-08-07T16:31:35.66" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{F0542428-BE7F-4F36-B352-D9BD3B30C45A}">
     <text>Skin processing. We obtained 6 mm punch biopsies from 5 patients with a diagnosis of HS from an actively inflamed lesion. Healthy control skin was obtained from surgical discards and was dermatomed at 500 μm prior to processing
 Same as GSE249622 and 249793 but with different cell filtering. Shares supplement with GSE 249622</text>
-  </threadedComment>
-  <threadedComment ref="A44" dT="2024-08-07T15:35:19.37" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E13DE188-AD34-4B44-BCD4-5388310AA511}">
-    <text>Moderate to severe
-Human skin samples for single-cell analyses. Five patients with chronic HS and 8 healthy controls were recruited for single-cell analysis at the University of Michigan. HS patients had a disease duration of at least 1 year prior to sampling and Hurley stage II or III disease. Patients did not use biologics or i.v. treatment and were off any other systemic treatment and off any topical agents for at least 2 weeks prior to inclusion. Six-millimeter punch biopsies were taken from lesional skin in the case of HS patients and healthy control skin from the hip/buttock for healthy controls.</text>
-  </threadedComment>
-  <threadedComment ref="O44" dT="2024-08-07T15:29:04.81" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{6B18B65C-D6E5-43C1-9E65-7B98B227C6B6}">
-    <text>These are means</text>
-  </threadedComment>
-  <threadedComment ref="A48" dT="2024-08-07T15:34:01.77" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{E1F80EC1-29ED-483D-B8E3-F6B366775769}">
-    <text xml:space="preserve">Moderate to severe
-Eligible participants were: 1) Age ≥18 years, 2) moderate-to-severe HS as defined by HS PGA score ≥3, 2) active disease involving ≥1 body site, 3) 3 t1/2 washout period from all systemic immunomodulating agents for management of HS at the pre-anti-TNFα time point </text>
-  </threadedComment>
-  <threadedComment ref="A81" dT="2024-08-07T16:14:59.04" personId="{EDDA6E1A-29A5-484B-BE7C-4EBA49246358}" id="{1206FBFC-F71C-490B-BF76-B191A0D47CB3}">
-    <text xml:space="preserve">The Institutional Review Board of the University of Alabama at Birmingham approved the protocol (IRB-300005214) for obtaining surgically discarded skin tissues from heathy and HS (Hurley II/III stage) subjects. Surgical excisions from 7 patients with HS (axillary and groin lesions) and 5 healthy controls (discarded tissue from breast or abdominoplasty reduction surgery) were collected. </text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1379,7 +1378,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1387,8 +1386,8 @@
     <col min="1" max="1" width="22.86328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.73046875" style="1" customWidth="1"/>
     <col min="3" max="5" width="8.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.73046875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="27.73046875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" style="38" customWidth="1"/>
     <col min="8" max="8" width="20.9296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.53125" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.73046875" style="1" customWidth="1"/>
@@ -1417,10 +1416,10 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>256</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -1455,326 +1454,341 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="38">
-        <v>0.80361305361305302</v>
-      </c>
-      <c r="H2" s="36">
-        <v>1716</v>
-      </c>
-      <c r="I2" s="36">
-        <v>1379</v>
+      <c r="E2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="37">
+        <v>0.12908878504672799</v>
+      </c>
+      <c r="H2" s="28">
+        <v>1712</v>
+      </c>
+      <c r="I2" s="28">
+        <v>221</v>
       </c>
       <c r="J2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="5">
-        <v>32</v>
-      </c>
-      <c r="P2" s="5"/>
+      <c r="K2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P2" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0.70785173375846899</v>
-      </c>
-      <c r="H3" s="36">
-        <v>2509</v>
-      </c>
-      <c r="I3" s="36">
-        <v>1776</v>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="37">
+        <v>6.3876651982378796E-2</v>
+      </c>
+      <c r="H3" s="28">
+        <v>908</v>
+      </c>
+      <c r="I3" s="28">
+        <v>58</v>
       </c>
       <c r="J3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="15">
-        <v>45</v>
-      </c>
-      <c r="P3" s="5"/>
+      <c r="K3" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P3" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="38">
-        <v>0.61845345591856804</v>
-      </c>
-      <c r="H4" s="36">
-        <v>6091</v>
-      </c>
-      <c r="I4" s="36">
-        <v>3767</v>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="37">
+        <v>3.8231780167264001E-2</v>
+      </c>
+      <c r="H4" s="28">
+        <v>837</v>
+      </c>
+      <c r="I4" s="28">
+        <v>31</v>
       </c>
       <c r="J4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4" s="16">
-        <v>27</v>
-      </c>
-      <c r="P4" s="5"/>
+      <c r="K4" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P4" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0.60996462264150897</v>
-      </c>
-      <c r="H5" s="36">
-        <v>3392</v>
-      </c>
-      <c r="I5" s="36">
-        <v>2069</v>
+      <c r="E5" s="11"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="37">
+        <v>3.6499377851513803E-2</v>
+      </c>
+      <c r="H5" s="28">
+        <v>4822</v>
+      </c>
+      <c r="I5" s="28">
+        <v>176</v>
       </c>
       <c r="J5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5" s="16">
-        <v>27</v>
-      </c>
-      <c r="P5" s="5"/>
+      <c r="K5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P5" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0.60723514211886298</v>
-      </c>
-      <c r="H6" s="36">
-        <v>6192</v>
-      </c>
-      <c r="I6" s="36">
-        <v>3760</v>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="37">
+        <v>1.48514851485148E-2</v>
+      </c>
+      <c r="H6" s="28">
+        <v>808</v>
+      </c>
+      <c r="I6" s="28">
+        <v>12</v>
       </c>
       <c r="J6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="O6" s="15">
-        <v>45</v>
-      </c>
-      <c r="P6" s="5"/>
+      <c r="K6" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P6" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0.57428503146658105</v>
-      </c>
-      <c r="H7" s="36">
-        <v>12553</v>
-      </c>
-      <c r="I7" s="36">
-        <v>7209</v>
+      <c r="E7" s="11"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="37">
+        <v>1.13082472216806E-2</v>
+      </c>
+      <c r="H7" s="28">
+        <v>5129</v>
+      </c>
+      <c r="I7" s="28">
+        <v>58</v>
       </c>
       <c r="J7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="O7" s="5">
-        <v>27</v>
-      </c>
-      <c r="P7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P7" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0.55095455767679402</v>
-      </c>
-      <c r="H8" s="36">
-        <v>7438</v>
-      </c>
-      <c r="I8" s="36">
-        <v>4098</v>
+      <c r="E8" s="11"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="37">
+        <v>1.1085285177900899E-2</v>
+      </c>
+      <c r="H8" s="28">
+        <v>5593</v>
+      </c>
+      <c r="I8" s="28">
+        <v>62</v>
       </c>
       <c r="J8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="5">
-        <v>32</v>
-      </c>
-      <c r="P8" s="5"/>
+      <c r="K8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P8" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>9</v>
@@ -1783,578 +1797,570 @@
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="39">
-        <v>0.55083655083655003</v>
-      </c>
-      <c r="H9" s="29">
-        <v>1554</v>
-      </c>
-      <c r="I9" s="29">
-        <v>856</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="37">
+        <v>8.3217753120665705E-3</v>
+      </c>
+      <c r="H9" s="28">
+        <v>1442</v>
+      </c>
+      <c r="I9" s="28">
+        <v>12</v>
       </c>
       <c r="J9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="K9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P9" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0.52573717402420295</v>
-      </c>
-      <c r="H10" s="29">
-        <v>11734</v>
-      </c>
-      <c r="I10" s="29">
-        <v>6169</v>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="37">
+        <v>5.5979643765903296E-3</v>
+      </c>
+      <c r="H10" s="28">
+        <v>1965</v>
+      </c>
+      <c r="I10" s="28">
+        <v>11</v>
       </c>
       <c r="J10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O10" s="16">
-        <v>51</v>
-      </c>
-      <c r="P10" s="5"/>
+      <c r="K10" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="12">
+        <v>42.22</v>
+      </c>
+      <c r="P10" s="12">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="39">
-        <v>0.52565180824222002</v>
-      </c>
-      <c r="H11" s="29">
-        <v>3567</v>
-      </c>
-      <c r="I11" s="29">
-        <v>1875</v>
+      <c r="E11" s="19"/>
+      <c r="F11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.20927622966149201</v>
+      </c>
+      <c r="H11" s="28">
+        <v>5347</v>
+      </c>
+      <c r="I11" s="28">
+        <v>1119</v>
       </c>
       <c r="J11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="9"/>
+      <c r="K11" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.5</v>
+      </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="29">
-        <v>1064</v>
-      </c>
-      <c r="I12" s="29">
-        <v>532</v>
+      <c r="E12" s="19"/>
+      <c r="F12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.15913171209401</v>
+      </c>
+      <c r="H12" s="28">
+        <v>6127</v>
+      </c>
+      <c r="I12" s="28">
+        <v>975</v>
       </c>
       <c r="J12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="13"/>
+      <c r="K12" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="39">
-        <v>0.47960848287112501</v>
-      </c>
-      <c r="H13" s="29">
-        <v>6130</v>
-      </c>
-      <c r="I13" s="29">
-        <v>2940</v>
+      <c r="E13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="37">
+        <v>3.0278884462151299E-2</v>
+      </c>
+      <c r="H13" s="28">
+        <v>11295</v>
+      </c>
+      <c r="I13" s="28">
+        <v>342</v>
       </c>
       <c r="J13" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>230</v>
+      <c r="K13" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0.5</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="O13" s="5">
-        <v>27</v>
-      </c>
-      <c r="P13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="39">
-        <v>0.45016077170418001</v>
-      </c>
-      <c r="H14" s="29">
-        <v>622</v>
-      </c>
-      <c r="I14" s="29">
-        <v>280</v>
+      <c r="E14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="37">
+        <v>3.59382168527297E-3</v>
+      </c>
+      <c r="H14" s="28">
+        <v>13078</v>
+      </c>
+      <c r="I14" s="28">
+        <v>47</v>
       </c>
       <c r="J14" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="L14" s="9"/>
+      <c r="K14" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.5</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="39">
-        <v>0.423401090728805</v>
-      </c>
-      <c r="H15" s="29">
-        <v>2017</v>
-      </c>
-      <c r="I15" s="29">
-        <v>854</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L15" s="9"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="39">
-        <v>0.37193627450980299</v>
-      </c>
-      <c r="H16" s="29">
-        <v>1632</v>
-      </c>
-      <c r="I16" s="29">
-        <v>607</v>
-      </c>
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="15"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="39">
-        <v>0.35291866028708102</v>
-      </c>
-      <c r="H17" s="29">
-        <v>5225</v>
-      </c>
-      <c r="I17" s="29">
-        <v>1844</v>
-      </c>
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O17" s="5">
-        <v>66</v>
-      </c>
-      <c r="P17" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="39">
-        <v>0.29105873550317901</v>
-      </c>
-      <c r="H18" s="29">
-        <v>2673</v>
-      </c>
-      <c r="I18" s="29">
-        <v>778</v>
-      </c>
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>164</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="39">
-        <v>0.27723590676144799</v>
-      </c>
-      <c r="H19" s="29">
-        <v>6049</v>
-      </c>
-      <c r="I19" s="29">
-        <v>1677</v>
+      <c r="E19" s="11"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="37">
+        <v>0.52565180824222002</v>
+      </c>
+      <c r="H19" s="28">
+        <v>3567</v>
+      </c>
+      <c r="I19" s="28">
+        <v>1875</v>
       </c>
       <c r="J19" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="16"/>
+      <c r="K19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="9"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="5">
+        <v>27</v>
+      </c>
+      <c r="P19" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="39">
-        <v>0.26237288135593201</v>
-      </c>
-      <c r="H20" s="29">
-        <v>1475</v>
-      </c>
-      <c r="I20" s="29">
-        <v>387</v>
+      <c r="E20" s="11"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="37">
+        <v>0.35291866028708102</v>
+      </c>
+      <c r="H20" s="28">
+        <v>5225</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1844</v>
       </c>
       <c r="J20" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="K20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" s="9"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O20" s="16">
-        <v>51</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="O20" s="5">
+        <v>66</v>
+      </c>
+      <c r="P20" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="39">
-        <v>0.20927622966149201</v>
-      </c>
-      <c r="H21" s="29">
-        <v>5347</v>
-      </c>
-      <c r="I21" s="29">
-        <v>1119</v>
+      <c r="E21" s="11"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="37">
+        <v>0.13313161875945501</v>
+      </c>
+      <c r="H21" s="28">
+        <v>5949</v>
+      </c>
+      <c r="I21" s="28">
+        <v>792</v>
       </c>
       <c r="J21" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K21" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="K21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" s="9"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="5">
+        <v>35</v>
+      </c>
+      <c r="P21" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="39">
-        <v>0.18932617769827001</v>
-      </c>
-      <c r="H22" s="29">
-        <v>6708</v>
-      </c>
-      <c r="I22" s="29">
-        <v>1270</v>
-      </c>
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="9"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O22" s="16">
-        <v>27</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="O22" s="5">
+        <v>48</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>9</v>
@@ -2363,168 +2369,152 @@
         <v>10</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="39">
-        <v>0.172672672672672</v>
-      </c>
-      <c r="H23" s="29">
-        <v>666</v>
-      </c>
-      <c r="I23" s="29">
-        <v>115</v>
+        <v>15</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="37">
+        <v>0.55083655083655003</v>
+      </c>
+      <c r="H23" s="28">
+        <v>1554</v>
+      </c>
+      <c r="I23" s="28">
+        <v>856</v>
       </c>
       <c r="J23" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="15"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="39">
-        <v>0.15913171209401</v>
-      </c>
-      <c r="H24" s="29">
-        <v>6127</v>
-      </c>
-      <c r="I24" s="29">
-        <v>975</v>
+      <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="28">
+        <v>1064</v>
+      </c>
+      <c r="I24" s="28">
+        <v>532</v>
       </c>
       <c r="J24" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="K24" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="39">
-        <v>0.150320543488661</v>
-      </c>
-      <c r="H25" s="29">
-        <v>10451</v>
-      </c>
-      <c r="I25" s="29">
-        <v>1571</v>
+      <c r="E25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="37">
+        <v>0.45016077170418001</v>
+      </c>
+      <c r="H25" s="28">
+        <v>622</v>
+      </c>
+      <c r="I25" s="28">
+        <v>280</v>
       </c>
       <c r="J25" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>215</v>
-      </c>
+      <c r="K25" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="9"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O25" s="5">
-        <v>32</v>
-      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="39">
-        <v>0.14339339339339299</v>
-      </c>
-      <c r="H26" s="29">
-        <v>1332</v>
-      </c>
-      <c r="I26" s="29">
-        <v>190</v>
+      <c r="E26" s="11"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="37">
+        <v>0.423401090728805</v>
+      </c>
+      <c r="H26" s="28">
+        <v>2017</v>
+      </c>
+      <c r="I26" s="28">
+        <v>854</v>
       </c>
       <c r="J26" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O26" s="16">
-        <v>27</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>9</v>
@@ -2533,43 +2523,35 @@
         <v>10</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="39">
-        <v>0.13313161875945501</v>
-      </c>
-      <c r="H27" s="29">
-        <v>5949</v>
-      </c>
-      <c r="I27" s="29">
-        <v>792</v>
+      <c r="F27" s="30"/>
+      <c r="G27" s="37">
+        <v>0.37193627450980299</v>
+      </c>
+      <c r="H27" s="28">
+        <v>1632</v>
+      </c>
+      <c r="I27" s="28">
+        <v>607</v>
       </c>
       <c r="J27" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>147</v>
+      <c r="K27" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="L27" s="9"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O27" s="5">
-        <v>35</v>
-      </c>
-      <c r="P27" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>9</v>
@@ -2580,930 +2562,743 @@
       <c r="E28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="39">
-        <v>0.12908878504672799</v>
-      </c>
-      <c r="H28" s="29">
-        <v>1712</v>
-      </c>
-      <c r="I28" s="29">
-        <v>221</v>
+      <c r="F28" s="30"/>
+      <c r="G28" s="37">
+        <v>0.29105873550317901</v>
+      </c>
+      <c r="H28" s="28">
+        <v>2673</v>
+      </c>
+      <c r="I28" s="28">
+        <v>778</v>
       </c>
       <c r="J28" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K28" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L28" s="9">
-        <v>2</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="K28" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P28" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="14"/>
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="A29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="39">
-        <v>0.115989927604658</v>
-      </c>
-      <c r="H29" s="29">
-        <v>6354</v>
-      </c>
-      <c r="I29" s="29">
-        <v>737</v>
+      <c r="E29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="37">
+        <v>0.172672672672672</v>
+      </c>
+      <c r="H29" s="28">
+        <v>666</v>
+      </c>
+      <c r="I29" s="28">
+        <v>115</v>
       </c>
       <c r="J29" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O29" s="5">
-        <v>32</v>
-      </c>
+      <c r="K29" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="39">
-        <v>9.1139883219091097E-2</v>
-      </c>
-      <c r="H30" s="29">
-        <v>3939</v>
-      </c>
-      <c r="I30" s="29">
-        <v>359</v>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="37">
+        <v>6.8261086198305898E-2</v>
+      </c>
+      <c r="H30" s="28">
+        <v>2007</v>
+      </c>
+      <c r="I30" s="28">
+        <v>137</v>
       </c>
       <c r="J30" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>215</v>
-      </c>
+      <c r="K30" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="9"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O30" s="5">
-        <v>32</v>
-      </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="39">
-        <v>8.2910442427274605E-2</v>
-      </c>
-      <c r="H31" s="29">
-        <v>13991</v>
-      </c>
-      <c r="I31" s="29">
-        <v>1160</v>
-      </c>
-      <c r="J31" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="O31" s="5">
-        <v>27</v>
+      <c r="O31" s="6">
+        <v>52.334246575342469</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="39">
-        <v>6.8261086198305898E-2</v>
-      </c>
-      <c r="H32" s="29">
-        <v>2007</v>
-      </c>
-      <c r="I32" s="29">
-        <v>137</v>
-      </c>
+      <c r="D32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L32" s="9"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="14"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O32" s="6">
+        <v>62.824657534246576</v>
+      </c>
+      <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="25" t="s">
+      <c r="A33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="39">
-        <v>6.7207112970711302E-2</v>
-      </c>
-      <c r="H33" s="29">
-        <v>3824</v>
-      </c>
-      <c r="I33" s="29">
-        <v>257</v>
-      </c>
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O33" s="5">
-        <v>27</v>
+      <c r="O33" s="6">
+        <v>58.43013698630137</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="A34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="39">
-        <v>6.3876651982378796E-2</v>
-      </c>
-      <c r="H34" s="29">
-        <v>908</v>
-      </c>
-      <c r="I34" s="29">
-        <v>58</v>
-      </c>
+      <c r="D34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L34" s="9">
-        <v>2</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="5"/>
-      <c r="O34" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P34" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34" s="6">
+        <v>41.156164383561645</v>
+      </c>
+      <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="22" t="s">
+      <c r="A35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="39">
-        <v>4.9027552674230097E-2</v>
-      </c>
-      <c r="H35" s="29">
-        <v>4936</v>
-      </c>
-      <c r="I35" s="29">
-        <v>242</v>
-      </c>
+      <c r="D35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>213</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="L35" s="9"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O35" s="16">
-        <v>51</v>
+      <c r="O35" s="6">
+        <v>40.638356164383559</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="25" t="s">
+      <c r="A36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="39">
-        <v>3.89243391066545E-2</v>
-      </c>
-      <c r="H36" s="29">
-        <v>10970</v>
-      </c>
-      <c r="I36" s="29">
-        <v>427</v>
-      </c>
+      <c r="D36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>213</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="L36" s="9"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O36" s="16">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="O36" s="6">
+        <v>46.282191780821918</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="39">
-        <v>3.8231780167264001E-2</v>
-      </c>
-      <c r="H37" s="29">
-        <v>837</v>
-      </c>
-      <c r="I37" s="29">
-        <v>31</v>
-      </c>
+      <c r="D37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L37" s="9">
-        <v>2</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="5"/>
-      <c r="O37" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P37" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O37" s="6">
+        <v>46.052054794520551</v>
+      </c>
+      <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="39">
-        <v>3.6499377851513803E-2</v>
-      </c>
-      <c r="H38" s="29">
-        <v>4822</v>
-      </c>
-      <c r="I38" s="29">
-        <v>176</v>
-      </c>
+      <c r="D38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L38" s="9">
-        <v>2</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="5"/>
-      <c r="O38" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P38" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O38" s="6">
+        <v>39.252054794520546</v>
+      </c>
+      <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="A39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="39">
-        <v>3.03454715219421E-2</v>
-      </c>
-      <c r="H39" s="29">
-        <v>4284</v>
-      </c>
-      <c r="I39" s="29">
-        <v>130</v>
-      </c>
+      <c r="D39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>214</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="L39" s="9"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O39" s="16">
-        <v>27</v>
+        <v>161</v>
+      </c>
+      <c r="O39" s="6">
+        <v>39.849315068493148</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="19" t="s">
+      <c r="A40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="39">
-        <v>3.0278884462151299E-2</v>
-      </c>
-      <c r="H40" s="29">
-        <v>11295</v>
-      </c>
-      <c r="I40" s="29">
-        <v>342</v>
-      </c>
+      <c r="D40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="L40" s="9"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="14"/>
+      <c r="N40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O40" s="6">
+        <v>40.517808219178079</v>
+      </c>
+      <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0</v>
+      <c r="A41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="39">
-        <v>1.83920126116657E-2</v>
-      </c>
-      <c r="H41" s="29">
-        <v>5709</v>
-      </c>
-      <c r="I41" s="29">
-        <v>105</v>
-      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="L41" s="9"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="13"/>
+      <c r="N41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O41" s="6">
+        <v>39.336986301369862</v>
+      </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="A42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="39">
-        <v>1.48514851485148E-2</v>
-      </c>
-      <c r="H42" s="29">
-        <v>808</v>
-      </c>
-      <c r="I42" s="29">
-        <v>12</v>
-      </c>
+      <c r="D42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="L42" s="9">
-        <v>2</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P42" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O42" s="6">
+        <v>39.556164383561644</v>
+      </c>
+      <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="A43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="39">
-        <v>1.13082472216806E-2</v>
-      </c>
-      <c r="H43" s="29">
-        <v>5129</v>
-      </c>
-      <c r="I43" s="29">
-        <v>58</v>
-      </c>
+      <c r="D43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L43" s="9">
-        <v>2</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P43" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O43" s="6">
+        <v>39.556164383561644</v>
+      </c>
+      <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="A44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="39">
-        <v>1.1085285177900899E-2</v>
-      </c>
-      <c r="H44" s="29">
-        <v>5593</v>
-      </c>
-      <c r="I44" s="29">
-        <v>62</v>
-      </c>
+      <c r="D44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L44" s="9">
-        <v>2</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P44" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O44" s="6">
+        <v>47.843835616438355</v>
+      </c>
+      <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="A45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="39">
-        <v>8.3217753120665705E-3</v>
-      </c>
-      <c r="H45" s="29">
-        <v>1442</v>
-      </c>
-      <c r="I45" s="29">
-        <v>12</v>
-      </c>
+      <c r="D45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L45" s="9">
-        <v>2</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="5"/>
-      <c r="O45" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P45" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O45" s="6">
+        <v>48.112328767123287</v>
+      </c>
+      <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="39">
-        <v>5.5979643765903296E-3</v>
-      </c>
-      <c r="H46" s="29">
-        <v>1965</v>
-      </c>
-      <c r="I46" s="29">
-        <v>11</v>
-      </c>
+      <c r="D46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" s="9">
-        <v>2</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="5"/>
-      <c r="O46" s="12">
-        <v>42.22</v>
-      </c>
-      <c r="P46" s="12">
-        <f>14/5</f>
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O46" s="6">
+        <v>47.613698630136987</v>
+      </c>
+      <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="19" t="s">
+      <c r="A47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="39">
-        <v>3.59382168527297E-3</v>
-      </c>
-      <c r="H47" s="29">
-        <v>13078</v>
-      </c>
-      <c r="I47" s="29">
-        <v>47</v>
-      </c>
+      <c r="D47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L47" s="9">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="L47" s="9"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="14"/>
+      <c r="N47" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O47" s="6">
+        <v>44.739726027397261</v>
+      </c>
+      <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="37"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="35"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>152</v>
+      <c r="K48" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="N48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O48" s="6">
+        <v>37.794520547945204</v>
+      </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>23</v>
@@ -3512,31 +3307,33 @@
         <v>24</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="37"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>153</v>
+      <c r="K49" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="N49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O49" s="6">
+        <v>37.471232876712328</v>
+      </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>23</v>
@@ -3544,34 +3341,34 @@
       <c r="D50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="37"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="35"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>156</v>
+      <c r="K50" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O50" s="6">
+        <v>36.589041095890408</v>
+      </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>23</v>
@@ -3579,34 +3376,34 @@
       <c r="D51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="37"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>157</v>
+      <c r="K51" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O51" s="6">
+        <v>65.569863013698637</v>
+      </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
     <row r="52" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>23</v>
@@ -3615,60 +3412,58 @@
         <v>24</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="37"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>150</v>
+      <c r="K52" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O52" s="5">
-        <v>48</v>
-      </c>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="O52" s="6">
+        <v>40.227397260273975</v>
+      </c>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="37"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="35"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="L53" s="9"/>
-      <c r="M53" s="17"/>
+      <c r="M53" s="5"/>
       <c r="N53" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="6">
-        <v>52.334246575342469</v>
+        <v>39.838356164383562</v>
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
@@ -3678,32 +3473,32 @@
         <v>39</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="37"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="35"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="L54" s="9"/>
-      <c r="M54" s="17"/>
+      <c r="M54" s="5"/>
       <c r="N54" s="5" t="s">
         <v>161</v>
       </c>
       <c r="O54" s="6">
-        <v>62.824657534246576</v>
+        <v>41.098630136986301</v>
       </c>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
@@ -3713,32 +3508,32 @@
         <v>39</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="37"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="L55" s="9"/>
-      <c r="M55" s="17"/>
+      <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
         <v>160</v>
       </c>
       <c r="O55" s="6">
-        <v>58.43013698630137</v>
+        <v>51.876712328767127</v>
       </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
@@ -3748,32 +3543,32 @@
         <v>39</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="37"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="35"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O56" s="6">
-        <v>41.156164383561645</v>
+        <v>51.876712328767127</v>
       </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
@@ -3783,24 +3578,24 @@
         <v>39</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="37"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="35"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="5"/>
@@ -3808,7 +3603,7 @@
         <v>161</v>
       </c>
       <c r="O57" s="6">
-        <v>40.638356164383559</v>
+        <v>73.558904109589037</v>
       </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
@@ -3818,462 +3613,474 @@
         <v>39</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="37"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O58" s="6">
-        <v>46.282191780821918</v>
+        <v>73.558904109589037</v>
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
     </row>
     <row r="59" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="8" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="35"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O59" s="6">
-        <v>46.052054794520551</v>
-      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="16"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
     <row r="60" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="8" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="29"/>
+      <c r="G60" s="35"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O60" s="6">
-        <v>39.252054794520546</v>
-      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="16"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
     </row>
     <row r="61" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="8" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="29"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O61" s="6">
-        <v>39.849315068493148</v>
-      </c>
+      <c r="N61" s="5"/>
+      <c r="O61" s="16"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
     </row>
     <row r="62" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="8" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="29"/>
+      <c r="G62" s="35"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O62" s="6">
-        <v>40.517808219178079</v>
-      </c>
+      <c r="N62" s="5"/>
+      <c r="O62" s="16"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
     </row>
     <row r="63" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="A63" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="D63" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="37">
+        <v>0.115989927604658</v>
+      </c>
+      <c r="H63" s="28">
+        <v>6354</v>
+      </c>
+      <c r="I63" s="28">
+        <v>737</v>
+      </c>
       <c r="J63" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="L63" s="9"/>
+        <v>206</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O63" s="6">
-        <v>39.336986301369862</v>
+        <v>160</v>
+      </c>
+      <c r="O63" s="5">
+        <v>32</v>
       </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
     </row>
     <row r="64" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="A64" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="D64" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="37">
+        <v>4.9027552674230097E-2</v>
+      </c>
+      <c r="H64" s="28">
+        <v>4936</v>
+      </c>
+      <c r="I64" s="28">
+        <v>242</v>
+      </c>
       <c r="J64" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L64" s="9"/>
+        <v>204</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O64" s="6">
-        <v>39.556164383561644</v>
+      <c r="O64" s="16">
+        <v>51</v>
       </c>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
     </row>
     <row r="65" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="A65" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="D65" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="37">
+        <v>3.03454715219421E-2</v>
+      </c>
+      <c r="H65" s="28">
+        <v>4284</v>
+      </c>
+      <c r="I65" s="28">
+        <v>130</v>
+      </c>
       <c r="J65" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="L65" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O65" s="6">
-        <v>39.556164383561644</v>
+        <v>160</v>
+      </c>
+      <c r="O65" s="16">
+        <v>27</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
     </row>
     <row r="66" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="8" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="37"/>
+      <c r="F66" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="35"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L66" s="9"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O66" s="6">
-        <v>47.843835616438355</v>
-      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
     </row>
     <row r="67" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="37"/>
+      <c r="F67" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="35"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O67" s="6">
-        <v>48.112328767123287</v>
-      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
     </row>
     <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="37"/>
+      <c r="F68" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="35"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O68" s="6">
-        <v>47.613698630136987</v>
-      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
     </row>
     <row r="69" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="37"/>
+      <c r="F69" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="35"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O69" s="6">
-        <v>44.739726027397261</v>
-      </c>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
     </row>
     <row r="70" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="37"/>
+      <c r="F70" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="35"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O70" s="6">
-        <v>37.794520547945204</v>
-      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
     </row>
     <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>23</v>
@@ -4282,313 +4089,385 @@
         <v>24</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="37"/>
+      <c r="F71" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="35"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O71" s="6">
-        <v>37.471232876712328</v>
-      </c>
+      <c r="N71" s="16"/>
+      <c r="O71" s="15"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
     </row>
     <row r="72" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="A72" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="25"/>
+      <c r="F72" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" s="37">
+        <v>0.27723590676144799</v>
+      </c>
+      <c r="H72" s="28">
+        <v>6049</v>
+      </c>
+      <c r="I72" s="28">
+        <v>1677</v>
+      </c>
       <c r="J72" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L72" s="9"/>
+        <v>216</v>
+      </c>
+      <c r="L72" s="16"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O72" s="6">
-        <v>36.589041095890408</v>
-      </c>
+      <c r="N72" s="16"/>
+      <c r="O72" s="15"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="A73" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="25"/>
+      <c r="F73" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="37">
+        <v>0.18932617769827001</v>
+      </c>
+      <c r="H73" s="28">
+        <v>6708</v>
+      </c>
+      <c r="I73" s="28">
+        <v>1270</v>
+      </c>
       <c r="J73" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="L73" s="9"/>
+        <v>218</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O73" s="6">
-        <v>65.569863013698637</v>
+        <v>160</v>
+      </c>
+      <c r="O73" s="16">
+        <v>27</v>
       </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
     </row>
     <row r="74" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="A74" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="37">
+        <v>0.150320543488661</v>
+      </c>
+      <c r="H74" s="28">
+        <v>10451</v>
+      </c>
+      <c r="I74" s="28">
+        <v>1571</v>
+      </c>
       <c r="J74" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="L74" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O74" s="6">
-        <v>40.227397260273975</v>
+        <v>160</v>
+      </c>
+      <c r="O74" s="5">
+        <v>32</v>
       </c>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="A75" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="25"/>
+      <c r="F75" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="37">
+        <v>0.14339339339339299</v>
+      </c>
+      <c r="H75" s="28">
+        <v>1332</v>
+      </c>
+      <c r="I75" s="28">
+        <v>190</v>
+      </c>
       <c r="J75" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="L75" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O75" s="6">
-        <v>39.838356164383562</v>
+        <v>160</v>
+      </c>
+      <c r="O75" s="16">
+        <v>27</v>
       </c>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
     </row>
     <row r="76" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="A76" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="25"/>
+      <c r="F76" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="37">
+        <v>9.1139883219091097E-2</v>
+      </c>
+      <c r="H76" s="28">
+        <v>3939</v>
+      </c>
+      <c r="I76" s="28">
+        <v>359</v>
+      </c>
       <c r="J76" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="L76" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O76" s="6">
-        <v>41.098630136986301</v>
+        <v>160</v>
+      </c>
+      <c r="O76" s="5">
+        <v>32</v>
       </c>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
     </row>
     <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="A77" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="37">
+        <v>8.2910442427274605E-2</v>
+      </c>
+      <c r="H77" s="28">
+        <v>13991</v>
+      </c>
+      <c r="I77" s="28">
+        <v>1160</v>
+      </c>
       <c r="J77" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="L77" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="M77" s="5"/>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="O77" s="6">
-        <v>51.876712328767127</v>
+      <c r="O77" s="5">
+        <v>27</v>
       </c>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
     </row>
     <row r="78" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="A78" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="F78" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="37">
+        <v>6.7207112970711302E-2</v>
+      </c>
+      <c r="H78" s="28">
+        <v>3824</v>
+      </c>
+      <c r="I78" s="28">
+        <v>257</v>
+      </c>
       <c r="J78" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L78" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="M78" s="5"/>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="O78" s="6">
-        <v>51.876712328767127</v>
+      <c r="O78" s="5">
+        <v>27</v>
       </c>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
     </row>
     <row r="79" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="A79" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G79" s="37">
+        <v>3.89243391066545E-2</v>
+      </c>
+      <c r="H79" s="28">
+        <v>10970</v>
+      </c>
+      <c r="I79" s="28">
+        <v>427</v>
+      </c>
       <c r="J79" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L79" s="9"/>
+        <v>217</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O79" s="6">
-        <v>73.558904109589037</v>
+      <c r="O79" s="16">
+        <v>51</v>
       </c>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
     </row>
     <row r="80" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>23</v>
@@ -4597,132 +4476,130 @@
         <v>24</v>
       </c>
       <c r="E80" s="5"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="37"/>
+      <c r="F80" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G80" s="35"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K80" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="L80" s="9"/>
+      <c r="K80" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="L80" s="16"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="O80" s="6">
-        <v>73.558904109589037</v>
-      </c>
+      <c r="N80" s="17"/>
+      <c r="O80" s="13"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
     </row>
     <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="30"/>
-      <c r="G81" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G81" s="35"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K81" s="15" t="s">
-        <v>200</v>
+      <c r="K81" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="16"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="13"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
     </row>
     <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" s="35"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K82" s="15" t="s">
-        <v>201</v>
+      <c r="K82" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="16"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="13"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
     </row>
     <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="30"/>
-      <c r="G83" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="35"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K83" s="15" t="s">
-        <v>202</v>
+      <c r="K83" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="16"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="13"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
     </row>
     <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>23</v>
@@ -4730,32 +4607,32 @@
       <c r="D84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="30"/>
-      <c r="G84" s="37"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="35"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K84" s="15" t="s">
-        <v>203</v>
+      <c r="K84" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="16"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="13"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
     </row>
     <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>23</v>
@@ -4764,17 +4641,17 @@
         <v>24</v>
       </c>
       <c r="E85" s="5"/>
-      <c r="F85" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" s="37"/>
+      <c r="F85" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G85" s="35"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K85" s="15" t="s">
-        <v>207</v>
+      <c r="K85" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="5"/>
@@ -4784,341 +4661,461 @@
       <c r="Q85" s="5"/>
     </row>
     <row r="86" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="A86" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G86" s="36">
+        <v>0.80361305361305302</v>
+      </c>
+      <c r="H86" s="28">
+        <v>1716</v>
+      </c>
+      <c r="I86" s="28">
+        <v>1379</v>
+      </c>
       <c r="J86" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="L86" s="9"/>
+        <v>232</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
+      <c r="N86" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O86" s="5">
+        <v>32</v>
+      </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
     </row>
     <row r="87" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" s="37"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
+      <c r="A87" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="36">
+        <v>0.70785173375846899</v>
+      </c>
+      <c r="H87" s="28">
+        <v>2509</v>
+      </c>
+      <c r="I87" s="28">
+        <v>1776</v>
+      </c>
       <c r="J87" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="L87" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
+      <c r="N87" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O87" s="15">
+        <v>45</v>
+      </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
     </row>
     <row r="88" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
+      <c r="A88" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="22"/>
+      <c r="F88" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G88" s="36">
+        <v>0.61845345591856804</v>
+      </c>
+      <c r="H88" s="28">
+        <v>6091</v>
+      </c>
+      <c r="I88" s="28">
+        <v>3767</v>
+      </c>
       <c r="J88" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="L88" s="9"/>
+        <v>233</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
+      <c r="N88" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O88" s="16">
+        <v>27</v>
+      </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
     </row>
     <row r="89" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="A89" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="22"/>
+      <c r="F89" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="36">
+        <v>0.60996462264150897</v>
+      </c>
+      <c r="H89" s="28">
+        <v>3392</v>
+      </c>
+      <c r="I89" s="28">
+        <v>2069</v>
+      </c>
       <c r="J89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="L89" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
+      <c r="N89" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O89" s="16">
+        <v>27</v>
+      </c>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
     </row>
     <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="A90" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="22"/>
+      <c r="F90" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G90" s="36">
+        <v>0.60723514211886298</v>
+      </c>
+      <c r="H90" s="28">
+        <v>6192</v>
+      </c>
+      <c r="I90" s="28">
+        <v>3760</v>
+      </c>
       <c r="J90" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L90" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="M90" s="5"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="15"/>
+      <c r="N90" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O90" s="15">
+        <v>45</v>
+      </c>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
     </row>
     <row r="91" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
+      <c r="A91" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="22"/>
+      <c r="F91" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G91" s="36">
+        <v>0.57428503146658105</v>
+      </c>
+      <c r="H91" s="28">
+        <v>12553</v>
+      </c>
+      <c r="I91" s="28">
+        <v>7209</v>
+      </c>
       <c r="J91" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="L91" s="16"/>
+        <v>236</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="M91" s="5"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="13"/>
+      <c r="N91" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O91" s="5">
+        <v>27</v>
+      </c>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
     </row>
     <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G92" s="37"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="A92" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="22"/>
+      <c r="F92" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G92" s="36">
+        <v>0.55095455767679402</v>
+      </c>
+      <c r="H92" s="28">
+        <v>7438</v>
+      </c>
+      <c r="I92" s="28">
+        <v>4098</v>
+      </c>
       <c r="J92" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="L92" s="9"/>
+        <v>237</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="M92" s="5"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="13"/>
+      <c r="N92" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O92" s="5">
+        <v>32</v>
+      </c>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
     </row>
     <row r="93" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="A93" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="22"/>
+      <c r="F93" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="37">
+        <v>0.52573717402420295</v>
+      </c>
+      <c r="H93" s="28">
+        <v>11734</v>
+      </c>
+      <c r="I93" s="28">
+        <v>6169</v>
+      </c>
       <c r="J93" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="L93" s="9"/>
+        <v>239</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="M93" s="5"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="13"/>
+      <c r="N93" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O93" s="16">
+        <v>51</v>
+      </c>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
     </row>
     <row r="94" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G94" s="37"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
+      <c r="A94" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G94" s="37">
+        <v>0.47960848287112501</v>
+      </c>
+      <c r="H94" s="28">
+        <v>6130</v>
+      </c>
+      <c r="I94" s="28">
+        <v>2940</v>
+      </c>
       <c r="J94" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="L94" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="M94" s="5"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="13"/>
+      <c r="N94" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O94" s="5">
+        <v>27</v>
+      </c>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
     </row>
     <row r="95" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
+      <c r="A95" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="22"/>
+      <c r="F95" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G95" s="37">
+        <v>0.26237288135593201</v>
+      </c>
+      <c r="H95" s="28">
+        <v>1475</v>
+      </c>
+      <c r="I95" s="28">
+        <v>387</v>
+      </c>
       <c r="J95" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="L95" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="M95" s="5"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="13"/>
+      <c r="N95" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O95" s="16">
+        <v>51</v>
+      </c>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
     </row>
     <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>23</v>
@@ -5127,22 +5124,22 @@
         <v>24</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G96" s="37"/>
+      <c r="F96" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G96" s="35"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L96" s="9"/>
       <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="13"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
     </row>
@@ -5151,7 +5148,7 @@
         <v>111</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>23</v>
@@ -5160,17 +5157,17 @@
         <v>24</v>
       </c>
       <c r="E97" s="5"/>
-      <c r="F97" s="30" t="s">
+      <c r="F97" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G97" s="37"/>
+      <c r="G97" s="35"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L97" s="9"/>
       <c r="M97" s="5"/>
@@ -5184,7 +5181,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>23</v>
@@ -5193,17 +5190,17 @@
         <v>24</v>
       </c>
       <c r="E98" s="5"/>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G98" s="37"/>
+      <c r="G98" s="35"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L98" s="9"/>
       <c r="M98" s="5"/>
@@ -5217,7 +5214,7 @@
         <v>111</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>23</v>
@@ -5226,17 +5223,17 @@
         <v>24</v>
       </c>
       <c r="E99" s="5"/>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G99" s="37"/>
+      <c r="G99" s="35"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K99" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L99" s="9"/>
       <c r="M99" s="5"/>
@@ -5250,7 +5247,7 @@
         <v>111</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>23</v>
@@ -5259,17 +5256,17 @@
         <v>24</v>
       </c>
       <c r="E100" s="5"/>
-      <c r="F100" s="30" t="s">
+      <c r="F100" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G100" s="37"/>
+      <c r="G100" s="35"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L100" s="9"/>
       <c r="M100" s="5"/>
@@ -5283,7 +5280,7 @@
         <v>111</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>23</v>
@@ -5292,17 +5289,17 @@
         <v>24</v>
       </c>
       <c r="E101" s="5"/>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G101" s="37"/>
+      <c r="G101" s="35"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L101" s="9"/>
       <c r="M101" s="5"/>
@@ -5316,7 +5313,7 @@
         <v>111</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>23</v>
@@ -5325,17 +5322,17 @@
         <v>24</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="30" t="s">
+      <c r="F102" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="37"/>
+      <c r="G102" s="35"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L102" s="9"/>
       <c r="M102" s="5"/>
@@ -5349,7 +5346,7 @@
         <v>111</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>23</v>
@@ -5358,17 +5355,17 @@
         <v>24</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="30" t="s">
+      <c r="F103" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G103" s="37"/>
+      <c r="G103" s="35"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L103" s="9"/>
       <c r="M103" s="5"/>
@@ -5382,7 +5379,7 @@
         <v>111</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>23</v>
@@ -5391,17 +5388,17 @@
         <v>24</v>
       </c>
       <c r="E104" s="5"/>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G104" s="37"/>
+      <c r="G104" s="35"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K104" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L104" s="9"/>
       <c r="M104" s="5"/>
@@ -5415,7 +5412,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>23</v>
@@ -5424,17 +5421,17 @@
         <v>24</v>
       </c>
       <c r="E105" s="5"/>
-      <c r="F105" s="30" t="s">
+      <c r="F105" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G105" s="37"/>
+      <c r="G105" s="35"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="5"/>
@@ -5444,31 +5441,33 @@
       <c r="Q105" s="5"/>
     </row>
     <row r="106" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>132</v>
+      <c r="A106" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E106" s="5"/>
-      <c r="F106" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" s="37"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="37">
+        <v>1.83920126116657E-2</v>
+      </c>
+      <c r="H106" s="39">
+        <v>5709</v>
+      </c>
+      <c r="I106" s="39">
+        <v>105</v>
+      </c>
       <c r="J106" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" s="13" t="s">
-        <v>250</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K106" s="5"/>
       <c r="L106" s="9"/>
       <c r="M106" s="5"/>
       <c r="N106" s="17"/>
@@ -6375,7 +6374,7 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q1000">
-    <sortCondition descending="1" ref="G1:G1000"/>
+    <sortCondition ref="A1:A1000"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1000">
     <cfRule type="colorScale" priority="1">

--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CBF841-D496-46E5-B40D-C11845A4F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3FEEE9-324B-404B-8CB0-BDD021A74835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
     <sheet name="key" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samples!$A$1:$Q$106</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -119,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="259">
   <si>
     <t>GSE</t>
   </si>
@@ -886,9 +889,6 @@
     <t>HS_data_expanded_2  = Red + Yellow</t>
   </si>
   <si>
-    <t>Haniffa</t>
-  </si>
-  <si>
     <t>Proportion Nan Cluster Label</t>
   </si>
   <si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>GSM Post QC Cell Count</t>
+  </si>
+  <si>
+    <t>haniffa_hs7</t>
   </si>
 </sst>
 </file>
@@ -944,6 +947,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1026,7 +1030,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1108,7 +1112,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1374,11 +1377,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1420,13 +1424,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>6</v>
@@ -1496,7 +1500,7 @@
         <v>42.22</v>
       </c>
       <c r="P2" s="12">
-        <f>14/5</f>
+        <f t="shared" ref="P2:P10" si="0">14/5</f>
         <v>2.8</v>
       </c>
       <c r="Q2" s="5"/>
@@ -1544,7 +1548,7 @@
         <v>42.22</v>
       </c>
       <c r="P3" s="12">
-        <f>14/5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q3" s="5"/>
@@ -1592,7 +1596,7 @@
         <v>42.22</v>
       </c>
       <c r="P4" s="12">
-        <f>14/5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q4" s="5"/>
@@ -1638,7 +1642,7 @@
         <v>42.22</v>
       </c>
       <c r="P5" s="12">
-        <f>14/5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q5" s="5"/>
@@ -1686,7 +1690,7 @@
         <v>42.22</v>
       </c>
       <c r="P6" s="12">
-        <f>14/5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q6" s="5"/>
@@ -1732,7 +1736,7 @@
         <v>42.22</v>
       </c>
       <c r="P7" s="12">
-        <f>14/5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q7" s="5"/>
@@ -1778,7 +1782,7 @@
         <v>42.22</v>
       </c>
       <c r="P8" s="12">
-        <f>14/5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q8" s="5"/>
@@ -1826,7 +1830,7 @@
         <v>42.22</v>
       </c>
       <c r="P9" s="12">
-        <f>14/5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q9" s="5"/>
@@ -1874,7 +1878,7 @@
         <v>42.22</v>
       </c>
       <c r="P10" s="12">
-        <f>14/5</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q10" s="5"/>
@@ -2047,7 +2051,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -2080,7 +2084,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -2113,7 +2117,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
@@ -2148,7 +2152,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
@@ -2663,7 +2667,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
@@ -2698,7 +2702,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
@@ -2733,7 +2737,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
@@ -2768,7 +2772,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
@@ -2803,7 +2807,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
@@ -2873,7 +2877,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
@@ -2908,7 +2912,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>39</v>
       </c>
@@ -2943,7 +2947,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2978,7 +2982,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -3013,7 +3017,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -3048,7 +3052,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
@@ -3083,7 +3087,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
@@ -3118,7 +3122,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>39</v>
       </c>
@@ -3153,7 +3157,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>39</v>
       </c>
@@ -3188,7 +3192,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>39</v>
       </c>
@@ -3223,7 +3227,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>39</v>
       </c>
@@ -3258,7 +3262,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
@@ -3293,7 +3297,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>39</v>
       </c>
@@ -3328,7 +3332,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
         <v>39</v>
       </c>
@@ -3363,7 +3367,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
         <v>39</v>
       </c>
@@ -3398,7 +3402,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>39</v>
       </c>
@@ -3433,7 +3437,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>39</v>
       </c>
@@ -3468,7 +3472,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
@@ -3503,7 +3507,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>39</v>
       </c>
@@ -3538,7 +3542,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
         <v>39</v>
       </c>
@@ -3573,7 +3577,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
         <v>39</v>
       </c>
@@ -3608,7 +3612,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="8" t="s">
         <v>39</v>
       </c>
@@ -3643,7 +3647,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="8" t="s">
         <v>77</v>
       </c>
@@ -3676,7 +3680,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
@@ -3709,7 +3713,7 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="8" t="s">
         <v>77</v>
       </c>
@@ -3742,7 +3746,7 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="8" t="s">
         <v>77</v>
       </c>
@@ -3910,7 +3914,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
     </row>
-    <row r="66" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="8" t="s">
         <v>83</v>
       </c>
@@ -3943,7 +3947,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
     </row>
-    <row r="67" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
         <v>83</v>
       </c>
@@ -3976,7 +3980,7 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
     </row>
-    <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>83</v>
       </c>
@@ -4009,7 +4013,7 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
     </row>
-    <row r="69" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>83</v>
       </c>
@@ -4042,7 +4046,7 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
     </row>
-    <row r="70" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>83</v>
       </c>
@@ -4075,7 +4079,7 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
     </row>
-    <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
         <v>83</v>
       </c>
@@ -4462,7 +4466,7 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
     </row>
-    <row r="80" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
         <v>93</v>
       </c>
@@ -4495,7 +4499,7 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
     </row>
-    <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>93</v>
       </c>
@@ -4528,7 +4532,7 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
     </row>
-    <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>93</v>
       </c>
@@ -4561,7 +4565,7 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
     </row>
-    <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
         <v>93</v>
       </c>
@@ -4594,7 +4598,7 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
     </row>
-    <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="8" t="s">
         <v>93</v>
       </c>
@@ -4627,7 +4631,7 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
     </row>
-    <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="8" t="s">
         <v>93</v>
       </c>
@@ -5110,7 +5114,7 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
     </row>
-    <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="8" t="s">
         <v>111</v>
       </c>
@@ -5143,7 +5147,7 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
     </row>
-    <row r="97" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="8" t="s">
         <v>111</v>
       </c>
@@ -5176,7 +5180,7 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
     </row>
-    <row r="98" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>111</v>
       </c>
@@ -5209,7 +5213,7 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
     </row>
-    <row r="99" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>111</v>
       </c>
@@ -5242,7 +5246,7 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
     </row>
-    <row r="100" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>111</v>
       </c>
@@ -5275,7 +5279,7 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
     </row>
-    <row r="101" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>111</v>
       </c>
@@ -5308,7 +5312,7 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
     </row>
-    <row r="102" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="8" t="s">
         <v>111</v>
       </c>
@@ -5341,7 +5345,7 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
     </row>
-    <row r="103" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="8" t="s">
         <v>111</v>
       </c>
@@ -5374,7 +5378,7 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
     </row>
-    <row r="104" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>111</v>
       </c>
@@ -5407,7 +5411,7 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
     </row>
-    <row r="105" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>111</v>
       </c>
@@ -5442,10 +5446,10 @@
     </row>
     <row r="106" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B106" s="5">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>9</v>
@@ -5458,10 +5462,10 @@
       <c r="G106" s="37">
         <v>1.83920126116657E-2</v>
       </c>
-      <c r="H106" s="39">
+      <c r="H106">
         <v>5709</v>
       </c>
-      <c r="I106" s="39">
+      <c r="I106">
         <v>105</v>
       </c>
       <c r="J106" s="5" t="b">
@@ -6373,6 +6377,13 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <autoFilter ref="A1:Q106" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q1000">
     <sortCondition ref="A1:A1000"/>
   </sortState>
